--- a/Documentation/RaportPlatformaKursowOnline.xlsx
+++ b/Documentation/RaportPlatformaKursowOnline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czest\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czest\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8656DB3F-7AA9-4272-84AA-392D9C07DE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFB57FED-9955-4998-ABF8-A4553FE896DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2205" windowWidth="29040" windowHeight="15720" xr2:uid="{1C222159-ABD4-43DD-B91E-C2C3C6962B94}"/>
+    <workbookView xWindow="-22740" yWindow="2655" windowWidth="21600" windowHeight="11295" xr2:uid="{1C222159-ABD4-43DD-B91E-C2C3C6962B94}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="118">
   <si>
     <t>Raport zaangażowania</t>
   </si>
@@ -254,9 +254,15 @@
     <t>ISubcategoryRepository.cs</t>
   </si>
   <si>
+    <t>ChatService.cs</t>
+  </si>
+  <si>
     <t>ProgressService.cs</t>
   </si>
   <si>
+    <t>ChatUserService.cs</t>
+  </si>
+  <si>
     <t>MessageService.cs</t>
   </si>
   <si>
@@ -275,62 +281,122 @@
     <t>StageService.cs</t>
   </si>
   <si>
-    <t>ChatUserService.cs</t>
-  </si>
-  <si>
     <t>CoursesPlatformContext.cs</t>
   </si>
   <si>
     <t>ICourseSubcategoryService.cs</t>
   </si>
   <si>
-    <t>ChatService.cs</t>
-  </si>
-  <si>
     <t>CourseSubcategoryService.cs</t>
   </si>
   <si>
+    <t>IPurchasedCoursesService.cs</t>
+  </si>
+  <si>
+    <t>PurchasedCoursesService.cs</t>
+  </si>
+  <si>
+    <t>Chat.cs</t>
+  </si>
+  <si>
+    <t>ChatUser.cs</t>
+  </si>
+  <si>
     <t>CategoryRepositoryTests.cs</t>
   </si>
   <si>
-    <t>IPurchasedCoursesService.cs</t>
-  </si>
-  <si>
-    <t>PurchasedCoursesService.cs</t>
-  </si>
-  <si>
-    <t>rrr</t>
+    <t>Course.cs</t>
   </si>
   <si>
     <t>CreatorRepositoryTests.cs</t>
   </si>
   <si>
+    <t>Creator.cs</t>
+  </si>
+  <si>
     <t>CourseRepositoryTests.cs</t>
   </si>
   <si>
-    <t>Chat.cs</t>
-  </si>
-  <si>
-    <t>ChatUser.cs</t>
-  </si>
-  <si>
-    <t>Course.cs</t>
-  </si>
-  <si>
-    <t>Creator.cs</t>
+    <t>CategoryServiceTests.cs</t>
   </si>
   <si>
     <t>Message.cs</t>
   </si>
   <si>
+    <t>CourseServiceTests.cs</t>
+  </si>
+  <si>
     <t>Progress.cs</t>
+  </si>
+  <si>
+    <t>CreatorServiceTests.cs</t>
+  </si>
+  <si>
+    <t>UserRepositoryTests.cs</t>
+  </si>
+  <si>
+    <t>ChatRepositoryTests.cs</t>
+  </si>
+  <si>
+    <t>ChatUserRepositoryTests.cs</t>
+  </si>
+  <si>
+    <t>UserServiceTests.cs</t>
+  </si>
+  <si>
+    <t>ChatServiceTests.cs</t>
+  </si>
+  <si>
+    <t>ChatUserServiceTests.cs</t>
+  </si>
+  <si>
+    <t>CourseSubcategoryTests.cs</t>
+  </si>
+  <si>
+    <t>SubcategoryServiceTests.cs</t>
+  </si>
+  <si>
+    <t>CourseSubcategoryRepositoryTests.cs</t>
+  </si>
+  <si>
+    <t>SubcategoryRepositoryTest.cs</t>
+  </si>
+  <si>
+    <t>PurchasedCoursesRepositoryTests.cs</t>
+  </si>
+  <si>
+    <t>PurchasedCoursesServiceTests.cs</t>
+  </si>
+  <si>
+    <t>ReviewRepositoryTests.cs</t>
+  </si>
+  <si>
+    <t>ReviewServiceTests.cs</t>
+  </si>
+  <si>
+    <t>MessageServiceTests.cs</t>
+  </si>
+  <si>
+    <t>ProgressServiceTests.cs</t>
+  </si>
+  <si>
+    <t>StageServiceTests.cs</t>
+  </si>
+  <si>
+    <t>MessageRepositoryTests.cs</t>
+  </si>
+  <si>
+    <t>ProgressRepositoryTests.cs</t>
+  </si>
+  <si>
+    <t>StageRepositoryTests.cs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +434,12 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -424,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -434,6 +506,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -778,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD29936F-0F96-49F0-A44C-C252A1A77709}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,20 +867,20 @@
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="39.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.28515625" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -829,23 +902,23 @@
       </c>
       <c r="F5" s="5">
         <f>SUM(F9:F100)</f>
-        <v>302</v>
+        <v>1051</v>
       </c>
       <c r="I5" s="5">
         <f>SUM(I9:I100)</f>
-        <v>1320</v>
+        <v>1050</v>
       </c>
       <c r="L5" s="5">
         <f>SUM(L9:L100)</f>
-        <v>190</v>
+        <v>642</v>
       </c>
       <c r="O5" s="5">
         <f>SUM(O9:O100)</f>
-        <v>398</v>
+        <v>1182</v>
       </c>
       <c r="R5" s="5">
         <f>SUM(R9:R100)</f>
-        <v>329</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -854,54 +927,54 @@
       </c>
       <c r="F6">
         <f>($B$3*$F$5)/SUM($F$5:$S$5)</f>
-        <v>0.59472233162662469</v>
+        <v>1.0399762517316447</v>
       </c>
       <c r="I6">
         <f>($B$3*$I$5)/SUM($F$5:$S$5)</f>
-        <v>2.5994486018117371</v>
+        <v>1.0389867405501683</v>
       </c>
       <c r="L6">
         <f>($B$3*$L$5)/SUM($F$5:$S$5)</f>
-        <v>0.37416305632138636</v>
+        <v>0.63526617850781719</v>
       </c>
       <c r="O6">
         <f>($B$3*$O$5)/SUM($F$5:$S$5)</f>
-        <v>0.78377313903111456</v>
+        <v>1.1696022165050466</v>
       </c>
       <c r="R6">
         <f>($B$3*$R$5)/SUM($F$5:$S$5)</f>
-        <v>0.64789287120913741</v>
+        <v>1.1161686127053236</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7" t="s">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7" t="s">
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D8" s="6" t="s">
@@ -1627,6 +1700,15 @@
       <c r="I23">
         <v>6</v>
       </c>
+      <c r="J23" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23">
+        <v>8</v>
+      </c>
       <c r="M23" s="3">
         <v>45758</v>
       </c>
@@ -1665,6 +1747,15 @@
       <c r="I24">
         <v>6</v>
       </c>
+      <c r="J24" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K24" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24">
+        <v>7</v>
+      </c>
       <c r="M24" s="3">
         <v>45758</v>
       </c>
@@ -1678,7 +1769,7 @@
         <v>45760</v>
       </c>
       <c r="Q24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R24">
         <v>30</v>
@@ -1703,6 +1794,15 @@
       <c r="I25">
         <v>6</v>
       </c>
+      <c r="J25" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K25" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
       <c r="M25" s="3">
         <v>45758</v>
       </c>
@@ -1716,7 +1816,7 @@
         <v>45760</v>
       </c>
       <c r="Q25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R25">
         <v>28</v>
@@ -1736,16 +1836,25 @@
         <v>45758</v>
       </c>
       <c r="H26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
+      <c r="J26" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K26" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
       <c r="M26" s="3">
         <v>45758</v>
       </c>
       <c r="N26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O26">
         <v>7</v>
@@ -1754,7 +1863,7 @@
         <v>45760</v>
       </c>
       <c r="Q26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R26">
         <v>35</v>
@@ -1771,13 +1880,22 @@
         <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="J27" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
       </c>
       <c r="M27" s="3">
         <v>45758</v>
       </c>
       <c r="N27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O27">
         <v>26</v>
@@ -1786,7 +1904,7 @@
         <v>45760</v>
       </c>
       <c r="Q27" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R27">
         <v>25</v>
@@ -1797,7 +1915,7 @@
         <v>45757</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -1811,11 +1929,20 @@
       <c r="I28">
         <v>20</v>
       </c>
+      <c r="J28" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K28" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
       <c r="M28" s="3">
         <v>45758</v>
       </c>
       <c r="N28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O28">
         <v>5</v>
@@ -1824,7 +1951,7 @@
         <v>45760</v>
       </c>
       <c r="Q28" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="R28">
         <v>25</v>
@@ -1844,10 +1971,19 @@
         <v>45760</v>
       </c>
       <c r="H29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I29">
         <v>3</v>
+      </c>
+      <c r="J29" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K29" t="s">
+        <v>75</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
       </c>
       <c r="M29" s="3">
         <v>45758</v>
@@ -1882,16 +2018,25 @@
         <v>45760</v>
       </c>
       <c r="H30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30">
+        <v>35</v>
+      </c>
+      <c r="J30" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K30" t="s">
+        <v>73</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30" s="3">
+        <v>45758</v>
+      </c>
+      <c r="N30" t="s">
         <v>84</v>
-      </c>
-      <c r="I30">
-        <v>416</v>
-      </c>
-      <c r="M30" s="3">
-        <v>45758</v>
-      </c>
-      <c r="N30" t="s">
-        <v>85</v>
       </c>
       <c r="O30">
         <v>5</v>
@@ -1920,16 +2065,25 @@
         <v>45760</v>
       </c>
       <c r="H31" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I31">
-        <v>35</v>
+        <v>14</v>
+      </c>
+      <c r="J31" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K31" t="s">
+        <v>85</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
       </c>
       <c r="M31" s="3">
         <v>45758</v>
       </c>
       <c r="N31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O31">
         <v>22</v>
@@ -1949,7 +2103,7 @@
         <v>45769</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -1958,56 +2112,134 @@
         <v>45760</v>
       </c>
       <c r="H32" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I32">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J32" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K32" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
+        <v>45782</v>
+      </c>
+      <c r="N32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
+        <v>45782</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>53</v>
+      </c>
+      <c r="R32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D33" s="3">
         <v>45769</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
       <c r="G33" s="3">
-        <v>45760</v>
+        <v>45784</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="I33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="J33" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L33">
+        <v>6</v>
+      </c>
+      <c r="M33" s="7">
+        <v>45782</v>
+      </c>
+      <c r="N33" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33">
+        <v>18</v>
+      </c>
+      <c r="P33" s="3">
+        <v>45782</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>89</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D34" s="3">
         <v>45769</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F34">
         <v>7</v>
       </c>
       <c r="G34" s="3">
-        <v>45760</v>
+        <v>45784</v>
       </c>
       <c r="H34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I34">
         <v>162</v>
       </c>
+      <c r="J34" s="3">
+        <v>45767</v>
+      </c>
       <c r="K34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34" s="3">
+        <v>45782</v>
+      </c>
+      <c r="N34" t="s">
+        <v>31</v>
+      </c>
+      <c r="O34">
+        <v>9</v>
+      </c>
+      <c r="P34" s="3">
+        <v>45782</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>91</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D35" s="3">
         <v>45769</v>
       </c>
@@ -2018,27 +2250,90 @@
         <v>2</v>
       </c>
       <c r="G35" s="3">
-        <v>45760</v>
+        <v>45784</v>
       </c>
       <c r="H35" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I35">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="J35" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35">
+        <v>12</v>
+      </c>
+      <c r="M35" s="7">
+        <v>45782</v>
+      </c>
+      <c r="N35" t="s">
+        <v>36</v>
+      </c>
+      <c r="O35">
+        <v>17</v>
+      </c>
+      <c r="P35" s="3">
+        <v>45782</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>62</v>
+      </c>
+      <c r="R35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D36" s="3">
         <v>45769</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G36" s="3">
+        <v>45784</v>
+      </c>
+      <c r="H36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36">
+        <v>132</v>
+      </c>
+      <c r="J36" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K36" t="s">
+        <v>54</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="M36" s="3">
+        <v>45782</v>
+      </c>
+      <c r="N36" t="s">
+        <v>41</v>
+      </c>
+      <c r="O36">
+        <v>4</v>
+      </c>
+      <c r="P36" s="3">
+        <v>45782</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>17</v>
+      </c>
+      <c r="R36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D37" s="3">
         <v>45769</v>
       </c>
@@ -2048,19 +2343,91 @@
       <c r="F37">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G37" s="3">
+        <v>45784</v>
+      </c>
+      <c r="H37" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37">
+        <v>122</v>
+      </c>
+      <c r="J37" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K37" t="s">
+        <v>57</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37" s="7">
+        <v>45782</v>
+      </c>
+      <c r="N37" t="s">
+        <v>46</v>
+      </c>
+      <c r="O37">
+        <v>21</v>
+      </c>
+      <c r="P37" s="3">
+        <v>45782</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>26</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D38" s="3">
         <v>45769</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G38" s="3">
+        <v>45784</v>
+      </c>
+      <c r="H38" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38">
+        <v>116</v>
+      </c>
+      <c r="J38" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38" s="3">
+        <v>45782</v>
+      </c>
+      <c r="N38" t="s">
+        <v>50</v>
+      </c>
+      <c r="O38">
+        <v>6</v>
+      </c>
+      <c r="P38" s="3">
+        <v>45782</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>35</v>
+      </c>
+      <c r="R38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D39" s="3">
         <v>45769</v>
       </c>
@@ -2070,8 +2437,44 @@
       <c r="F39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G39" s="3">
+        <v>45784</v>
+      </c>
+      <c r="H39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39">
+        <v>14</v>
+      </c>
+      <c r="J39" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K39" t="s">
+        <v>44</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39" s="7">
+        <v>45782</v>
+      </c>
+      <c r="N39" t="s">
+        <v>54</v>
+      </c>
+      <c r="O39">
+        <v>17</v>
+      </c>
+      <c r="P39" s="3">
+        <v>45782</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>45</v>
+      </c>
+      <c r="R39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D40" s="3">
         <v>45769</v>
       </c>
@@ -2081,8 +2484,44 @@
       <c r="F40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G40" s="3">
+        <v>45784</v>
+      </c>
+      <c r="H40" t="s">
+        <v>68</v>
+      </c>
+      <c r="I40">
+        <v>20</v>
+      </c>
+      <c r="J40" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40" s="3">
+        <v>45782</v>
+      </c>
+      <c r="N40" t="s">
+        <v>56</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+      <c r="P40" s="3">
+        <v>45782</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>71</v>
+      </c>
+      <c r="R40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D41" s="3">
         <v>45769</v>
       </c>
@@ -2092,8 +2531,44 @@
       <c r="F41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G41" s="3">
+        <v>45784</v>
+      </c>
+      <c r="H41" t="s">
+        <v>78</v>
+      </c>
+      <c r="I41">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K41" t="s">
+        <v>34</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41" s="7">
+        <v>45782</v>
+      </c>
+      <c r="N41" t="s">
+        <v>44</v>
+      </c>
+      <c r="O41">
+        <v>25</v>
+      </c>
+      <c r="P41" s="3">
+        <v>45782</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>57</v>
+      </c>
+      <c r="R41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D42" s="3">
         <v>45769</v>
       </c>
@@ -2102,6 +2577,636 @@
       </c>
       <c r="F42">
         <v>6</v>
+      </c>
+      <c r="J42" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K42" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" s="3">
+        <v>45782</v>
+      </c>
+      <c r="N42" t="s">
+        <v>64</v>
+      </c>
+      <c r="O42">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
+        <v>45782</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D43" s="3">
+        <v>45783</v>
+      </c>
+      <c r="E43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43">
+        <v>98</v>
+      </c>
+      <c r="J43" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" s="3">
+        <v>45782</v>
+      </c>
+      <c r="N43" t="s">
+        <v>68</v>
+      </c>
+      <c r="O43">
+        <v>12</v>
+      </c>
+      <c r="P43" s="3">
+        <v>45782</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>34</v>
+      </c>
+      <c r="R43">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D44" s="3">
+        <v>45783</v>
+      </c>
+      <c r="E44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44">
+        <v>104</v>
+      </c>
+      <c r="J44" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K44" t="s">
+        <v>85</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" s="7">
+        <v>45782</v>
+      </c>
+      <c r="N44" t="s">
+        <v>60</v>
+      </c>
+      <c r="O44">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3">
+        <v>45782</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>30</v>
+      </c>
+      <c r="R44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D45" s="3">
+        <v>45783</v>
+      </c>
+      <c r="E45" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45">
+        <v>147</v>
+      </c>
+      <c r="J45" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K45" t="s">
+        <v>49</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45" s="3">
+        <v>45782</v>
+      </c>
+      <c r="N45" t="s">
+        <v>63</v>
+      </c>
+      <c r="O45">
+        <v>20</v>
+      </c>
+      <c r="P45" s="3">
+        <v>45782</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>40</v>
+      </c>
+      <c r="R45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D46" s="3">
+        <v>45783</v>
+      </c>
+      <c r="E46" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46">
+        <v>140</v>
+      </c>
+      <c r="J46" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K46" t="s">
+        <v>63</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46" s="7">
+        <v>45782</v>
+      </c>
+      <c r="N46" t="s">
+        <v>77</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3">
+        <v>45782</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>49</v>
+      </c>
+      <c r="R46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D47" s="3">
+        <v>45783</v>
+      </c>
+      <c r="E47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47">
+        <v>120</v>
+      </c>
+      <c r="J47" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K47" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47" s="3">
+        <v>45782</v>
+      </c>
+      <c r="N47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O47">
+        <v>9</v>
+      </c>
+      <c r="P47" s="3">
+        <v>45782</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>25</v>
+      </c>
+      <c r="R47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D48" s="3">
+        <v>45783</v>
+      </c>
+      <c r="E48" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48">
+        <v>140</v>
+      </c>
+      <c r="J48" s="3">
+        <v>45767</v>
+      </c>
+      <c r="K48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48" s="7">
+        <v>45782</v>
+      </c>
+      <c r="N48" t="s">
+        <v>84</v>
+      </c>
+      <c r="O48">
+        <v>7</v>
+      </c>
+      <c r="P48" s="3">
+        <v>45814</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>51</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J49" s="3">
+        <v>45783</v>
+      </c>
+      <c r="K49" t="s">
+        <v>104</v>
+      </c>
+      <c r="L49">
+        <v>78</v>
+      </c>
+      <c r="M49" s="3">
+        <v>45782</v>
+      </c>
+      <c r="N49" t="s">
+        <v>85</v>
+      </c>
+      <c r="O49">
+        <v>22</v>
+      </c>
+      <c r="P49" s="3">
+        <v>45814</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>47</v>
+      </c>
+      <c r="R49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J50" s="3">
+        <v>45783</v>
+      </c>
+      <c r="K50" t="s">
+        <v>105</v>
+      </c>
+      <c r="L50">
+        <v>78</v>
+      </c>
+      <c r="M50" s="7">
+        <v>45782</v>
+      </c>
+      <c r="N50" t="s">
+        <v>67</v>
+      </c>
+      <c r="O50">
+        <v>4</v>
+      </c>
+      <c r="P50" s="3">
+        <v>45814</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>42</v>
+      </c>
+      <c r="R50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J51" s="3">
+        <v>45783</v>
+      </c>
+      <c r="K51" t="s">
+        <v>106</v>
+      </c>
+      <c r="L51">
+        <v>101</v>
+      </c>
+      <c r="M51" s="3">
+        <v>45782</v>
+      </c>
+      <c r="N51" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51">
+        <v>21</v>
+      </c>
+      <c r="P51" s="3">
+        <v>45814</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>37</v>
+      </c>
+      <c r="R51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J52" s="3">
+        <v>45783</v>
+      </c>
+      <c r="K52" t="s">
+        <v>107</v>
+      </c>
+      <c r="L52">
+        <v>104</v>
+      </c>
+      <c r="M52" s="7">
+        <v>45782</v>
+      </c>
+      <c r="N52" t="s">
+        <v>82</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3">
+        <v>45814</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>32</v>
+      </c>
+      <c r="R52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="M53" s="3">
+        <v>45782</v>
+      </c>
+      <c r="N53" t="s">
+        <v>83</v>
+      </c>
+      <c r="O53">
+        <v>11</v>
+      </c>
+      <c r="P53" s="3">
+        <v>45814</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>27</v>
+      </c>
+      <c r="R53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="M54" s="3">
+        <v>45782</v>
+      </c>
+      <c r="N54" t="s">
+        <v>59</v>
+      </c>
+      <c r="O54">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3">
+        <v>45814</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>23</v>
+      </c>
+      <c r="R54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="M55" s="7">
+        <v>45782</v>
+      </c>
+      <c r="N55" t="s">
+        <v>39</v>
+      </c>
+      <c r="O55">
+        <v>17</v>
+      </c>
+      <c r="P55" s="3">
+        <v>45814</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>72</v>
+      </c>
+      <c r="R55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="M56" s="3">
+        <v>45783</v>
+      </c>
+      <c r="N56" t="s">
+        <v>108</v>
+      </c>
+      <c r="O56">
+        <v>106</v>
+      </c>
+      <c r="P56" s="3">
+        <v>45814</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>74</v>
+      </c>
+      <c r="R56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="M57" s="3">
+        <v>45783</v>
+      </c>
+      <c r="N57" t="s">
+        <v>109</v>
+      </c>
+      <c r="O57">
+        <v>128</v>
+      </c>
+      <c r="P57" s="3">
+        <v>45814</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>78</v>
+      </c>
+      <c r="R57">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="M58" s="3">
+        <v>45783</v>
+      </c>
+      <c r="N58" t="s">
+        <v>110</v>
+      </c>
+      <c r="O58">
+        <v>97</v>
+      </c>
+      <c r="P58" s="3">
+        <v>45814</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>75</v>
+      </c>
+      <c r="R58">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="M59" s="3">
+        <v>45783</v>
+      </c>
+      <c r="N59" t="s">
+        <v>111</v>
+      </c>
+      <c r="O59">
+        <v>87</v>
+      </c>
+      <c r="P59" s="3">
+        <v>45814</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>73</v>
+      </c>
+      <c r="R59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="M60" s="3">
+        <v>45783</v>
+      </c>
+      <c r="N60" t="s">
+        <v>112</v>
+      </c>
+      <c r="O60">
+        <v>98</v>
+      </c>
+      <c r="P60" s="3">
+        <v>45814</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>69</v>
+      </c>
+      <c r="R60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="P61" s="3">
+        <v>45814</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>65</v>
+      </c>
+      <c r="R61">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="P62" s="3">
+        <v>45814</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>30</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="P63" s="3">
+        <v>45814</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>40</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="P64" s="3">
+        <v>45814</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>63</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P65" s="3">
+        <v>45814</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>113</v>
+      </c>
+      <c r="R65">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P66" s="3">
+        <v>45814</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>114</v>
+      </c>
+      <c r="R66">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P67" s="3">
+        <v>45814</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>115</v>
+      </c>
+      <c r="R67">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P68" s="3">
+        <v>45814</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>116</v>
+      </c>
+      <c r="R68">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P69" s="3">
+        <v>45814</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>117</v>
+      </c>
+      <c r="R69">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2118,6 +3223,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f57a5a3b-e9ca-4f69-983c-fd244ac66fd9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101002B3BB2F66053D54C98190C8E8AF96932" ma:contentTypeVersion="9" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="c5c07df80678844a945da18b07e36942">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f57a5a3b-e9ca-4f69-983c-fd244ac66fd9" xmlns:ns4="b333733c-e3e1-49b9-88ef-fc9cad076a5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ccde375ddeddf66670bd2d42a175f0da" ns3:_="" ns4:_="">
     <xsd:import namespace="f57a5a3b-e9ca-4f69-983c-fd244ac66fd9"/>
@@ -2312,24 +3434,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AE009ED-F562-4DBD-B3A1-5CCCCCFAF413}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f57a5a3b-e9ca-4f69-983c-fd244ac66fd9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b333733c-e3e1-49b9-88ef-fc9cad076a5f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f57a5a3b-e9ca-4f69-983c-fd244ac66fd9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14513E02-3D74-44D5-9648-4464696F062B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64616556-8C22-4CD5-9625-6862D8E25BB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2346,29 +3476,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14513E02-3D74-44D5-9648-4464696F062B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AE009ED-F562-4DBD-B3A1-5CCCCCFAF413}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="f57a5a3b-e9ca-4f69-983c-fd244ac66fd9"/>
-    <ds:schemaRef ds:uri="b333733c-e3e1-49b9-88ef-fc9cad076a5f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentation/RaportPlatformaKursowOnline.xlsx
+++ b/Documentation/RaportPlatformaKursowOnline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czest\Desktop\projekt\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50462A55-E2F9-4CC7-B575-921F831B4FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{055C39C5-8474-4B67-9C85-8699CB896A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{1C222159-ABD4-43DD-B91E-C2C3C6962B94}"/>
+    <workbookView xWindow="-28920" yWindow="2205" windowWidth="29040" windowHeight="15720" xr2:uid="{1C222159-ABD4-43DD-B91E-C2C3C6962B94}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="306">
   <si>
     <t>Raport zaangażowania</t>
   </si>
@@ -635,6 +635,9 @@
     <t>forms.ts</t>
   </si>
   <si>
+    <t>AdminSidebar.tsx</t>
+  </si>
+  <si>
     <t>AddCourse.css</t>
   </si>
   <si>
@@ -644,6 +647,9 @@
     <t>useForm.ts</t>
   </si>
   <si>
+    <t>AdminCoursesManagment.tsx</t>
+  </si>
+  <si>
     <t>AddStage.tsx</t>
   </si>
   <si>
@@ -659,6 +665,9 @@
     <t>errorHandling.ts</t>
   </si>
   <si>
+    <t>AdminCategoryManagment.tsx</t>
+  </si>
+  <si>
     <t>loginValidation.ts</t>
   </si>
   <si>
@@ -683,6 +692,9 @@
     <t>ChatDTO.cs</t>
   </si>
   <si>
+    <t xml:space="preserve">AddCourse.tsx </t>
+  </si>
+  <si>
     <t>courses.ts</t>
   </si>
   <si>
@@ -695,24 +707,54 @@
     <t>StageWithProgressDto.cs</t>
   </si>
   <si>
+    <t>RecaptchaService.cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CourseViewPage.css</t>
+  </si>
+  <si>
     <t>CourseView.css</t>
   </si>
   <si>
+    <t>AdminReviewsManagement.tsx</t>
+  </si>
+  <si>
     <t>03.06.2025r.</t>
   </si>
   <si>
+    <t>toxicService.ts</t>
+  </si>
+  <si>
     <t>Chats.tsx</t>
   </si>
   <si>
     <t>apiClient.ts</t>
   </si>
   <si>
+    <t>16.06.2025r.</t>
+  </si>
+  <si>
     <t>chatService.ts</t>
   </si>
   <si>
+    <t>CourseDetails.css</t>
+  </si>
+  <si>
+    <t>AccountControllerTests.cs</t>
+  </si>
+  <si>
     <t>courseService.ts</t>
   </si>
   <si>
+    <t>getCourseImageUrl.t</t>
+  </si>
+  <si>
+    <t>28.06.2025r.</t>
+  </si>
+  <si>
     <t>progressService.ts</t>
   </si>
   <si>
@@ -720,6 +762,198 @@
   </si>
   <si>
     <t>PurchasedCourses.css</t>
+  </si>
+  <si>
+    <t>StagePlayer.tsx</t>
+  </si>
+  <si>
+    <t>StagesSidebar.tsx</t>
+  </si>
+  <si>
+    <t>TextEditor.tsx</t>
+  </si>
+  <si>
+    <t>ReviewDTO.cs</t>
+  </si>
+  <si>
+    <t>AnalyticsService.cs</t>
+  </si>
+  <si>
+    <t>difficulty.ts</t>
+  </si>
+  <si>
+    <t>AnalyticsController.cs</t>
+  </si>
+  <si>
+    <t>DeleteResponseDTO.cs</t>
+  </si>
+  <si>
+    <t>IAnalyticsService.cs</t>
+  </si>
+  <si>
+    <t>TextEditor.css</t>
+  </si>
+  <si>
+    <t>AnalyticsDTO.cs</t>
+  </si>
+  <si>
+    <t>Analytics.tsx</t>
+  </si>
+  <si>
+    <t>CourseController.cs</t>
+  </si>
+  <si>
+    <t>analyticsService.ts</t>
+  </si>
+  <si>
+    <t>AdminControllerTests.cs</t>
+  </si>
+  <si>
+    <t>Analytics.css</t>
+  </si>
+  <si>
+    <t>CategoryControllerTests.cs</t>
+  </si>
+  <si>
+    <t>CreatorPanelChats.tsx</t>
+  </si>
+  <si>
+    <t>subcategoryService.ts</t>
+  </si>
+  <si>
+    <t>ChatControllerTests.cs</t>
+  </si>
+  <si>
+    <t>CreatorPanelChats.css</t>
+  </si>
+  <si>
+    <t>VideoPlayer.tsx</t>
+  </si>
+  <si>
+    <t>ReviewControllerTests.cs</t>
+  </si>
+  <si>
+    <t>29.06.2025r.</t>
+  </si>
+  <si>
+    <t>StatisticsController.cs</t>
+  </si>
+  <si>
+    <t>InvitationService.cs</t>
+  </si>
+  <si>
+    <t>StatisticsControllerTests.cs</t>
+  </si>
+  <si>
+    <t>InvitationController</t>
+  </si>
+  <si>
+    <t>InvitationRepository.cs</t>
+  </si>
+  <si>
+    <t>ProgressDTO.cs</t>
+  </si>
+  <si>
+    <t>statisticsService.ts</t>
+  </si>
+  <si>
+    <t>IInvitationService.cs</t>
+  </si>
+  <si>
+    <t>IInvitationRepository.cs</t>
+  </si>
+  <si>
+    <t>AcceptInvitationDTO.cs</t>
+  </si>
+  <si>
+    <t>CourseAlreadyExistsException.cs</t>
+  </si>
+  <si>
+    <t>InviteByEmailDTO.cs</t>
+  </si>
+  <si>
+    <t>StageAlreadyExistsInCourseException.cs</t>
+  </si>
+  <si>
+    <t>Invitation.cs</t>
+  </si>
+  <si>
+    <t>CoursePuchaseController.cs</t>
+  </si>
+  <si>
+    <t>CoursesControllerTests.cs</t>
+  </si>
+  <si>
+    <t>CoursePuchaseControllerTests.cs</t>
+  </si>
+  <si>
+    <t>StageControllerTests.cs</t>
+  </si>
+  <si>
+    <t>CreatorControllerTests.cs</t>
+  </si>
+  <si>
+    <t>ProgressControllerTests.cs</t>
+  </si>
+  <si>
+    <t>StageVideoControllerTests.cs</t>
+  </si>
+  <si>
+    <t>SubcategoryControllerTests.cs</t>
+  </si>
+  <si>
+    <t>UserControllerTests.cs</t>
+  </si>
+  <si>
+    <t>03.07.2025r.</t>
+  </si>
+  <si>
+    <t>CategoryAlreadyExistsException.cs</t>
+  </si>
+  <si>
+    <t>AnalyticsControllerTests.cs</t>
+  </si>
+  <si>
+    <t>SubcategoryAlreadyExistsException.cs</t>
+  </si>
+  <si>
+    <t>08.07.2025r.</t>
+  </si>
+  <si>
+    <t>MyProfile.css</t>
+  </si>
+  <si>
+    <t>14.07.2025r.</t>
+  </si>
+  <si>
+    <t>MyCourses.css</t>
+  </si>
+  <si>
+    <t>21.07.2025r.</t>
+  </si>
+  <si>
+    <t>courseValidation.ts</t>
+  </si>
+  <si>
+    <t>stageValidation.ts</t>
+  </si>
+  <si>
+    <t>invitationService.ts</t>
+  </si>
+  <si>
+    <t>Invitation.tsx</t>
+  </si>
+  <si>
+    <t>InvitationController.cs</t>
+  </si>
+  <si>
+    <t>29.07.2025r.</t>
+  </si>
+  <si>
+    <t>Navbar.tsx</t>
+  </si>
+  <si>
+    <t>Invitations.css</t>
   </si>
 </sst>
 </file>
@@ -769,7 +1003,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -848,8 +1082,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Dobry" xfId="1" builtinId="26"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -862,10 +1096,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1185,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD29936F-0F96-49F0-A44C-C252A1A77709}">
-  <dimension ref="A1:V107"/>
+  <dimension ref="A1:V178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V130" sqref="V130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,7 +1427,7 @@
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="39.5703125" customWidth="1"/>
@@ -1243,27 +1473,27 @@
       </c>
       <c r="F5" s="5">
         <f>SUM(F10:F201)</f>
-        <v>3324</v>
+        <v>4948</v>
       </c>
       <c r="I5" s="5">
         <f>SUM(I10:I201)</f>
-        <v>2478</v>
+        <v>5000</v>
       </c>
       <c r="L5" s="5">
         <f>SUM(L10:L201)</f>
-        <v>2017</v>
+        <v>4715</v>
       </c>
       <c r="O5" s="5">
         <f>SUM(O10:O201)</f>
-        <v>2224</v>
+        <v>4440</v>
       </c>
       <c r="R5" s="5">
         <f>SUM(R10:R201)</f>
-        <v>1862</v>
+        <v>4848</v>
       </c>
       <c r="V5">
         <f>SUM(F5:R5)</f>
-        <v>11905</v>
+        <v>23951</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1272,23 +1502,23 @@
       </c>
       <c r="F6">
         <f>(($B$3*$F$5)/SUM($F$5:$S$5))*$B$4</f>
-        <v>6.9802603947921043</v>
+        <v>5.1647112855413138</v>
       </c>
       <c r="I6">
         <f>(($B$3*$I$5)/SUM($F$5:$S$5))*$B$4</f>
-        <v>5.2036959260814788</v>
+        <v>5.2189887687361693</v>
       </c>
       <c r="L6">
         <f>(($B$3*$L$5)/SUM($F$5:$S$5))*$B$4</f>
-        <v>4.2356152876942463</v>
+        <v>4.9215064089182086</v>
       </c>
       <c r="O6">
         <f>(($B$3*$O$5)/SUM($F$5:$S$5))*$B$4</f>
-        <v>4.6703065938681227</v>
+        <v>4.6344620266377188</v>
       </c>
       <c r="R6">
         <f>(($B$3*$R$5)/SUM($F$5:$S$5))*$B$4</f>
-        <v>3.9101217975640488</v>
+        <v>5.0603315101665904</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1297,23 +1527,23 @@
       </c>
       <c r="F7">
         <f>($B$3*$F$5)/SUM($F$5:$S$5)</f>
-        <v>1.3960520789584208</v>
+        <v>1.0329422571082627</v>
       </c>
       <c r="I7">
         <f>($B$3*$I$5)/SUM($F$5:$S$5)</f>
-        <v>1.0407391852162957</v>
+        <v>1.0437977537472338</v>
       </c>
       <c r="L7">
         <f>($B$3*$L$5)/SUM($F$5:$S$5)</f>
-        <v>0.8471230575388492</v>
+        <v>0.98430128178364162</v>
       </c>
       <c r="O7">
         <f>($B$3*$O$5)/SUM($F$5:$S$5)</f>
-        <v>0.93406131877362453</v>
+        <v>0.92689240532754369</v>
       </c>
       <c r="R7">
         <f>($B$3*$R$5)/SUM($F$5:$S$5)</f>
-        <v>0.7820243595128098</v>
+        <v>1.012066302033318</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -4608,6 +4838,15 @@
       <c r="I78">
         <v>4</v>
       </c>
+      <c r="J78" s="3">
+        <v>45830</v>
+      </c>
+      <c r="K78" t="s">
+        <v>195</v>
+      </c>
+      <c r="L78">
+        <v>7</v>
+      </c>
       <c r="M78" s="3">
         <v>45811</v>
       </c>
@@ -4646,11 +4885,20 @@
       <c r="I79">
         <v>19</v>
       </c>
+      <c r="J79" s="3">
+        <v>45830</v>
+      </c>
+      <c r="K79" t="s">
+        <v>199</v>
+      </c>
+      <c r="L79">
+        <v>28</v>
+      </c>
       <c r="M79" s="3">
         <v>45811</v>
       </c>
       <c r="N79" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O79">
         <v>97</v>
@@ -4670,7 +4918,7 @@
         <v>45801</v>
       </c>
       <c r="E80" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F80">
         <v>86</v>
@@ -4679,16 +4927,25 @@
         <v>45807</v>
       </c>
       <c r="H80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I80">
         <v>67</v>
       </c>
+      <c r="J80" s="3">
+        <v>45830</v>
+      </c>
+      <c r="K80" t="s">
+        <v>203</v>
+      </c>
+      <c r="L80">
+        <v>76</v>
+      </c>
       <c r="M80" s="3">
         <v>45811</v>
       </c>
       <c r="N80" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O80">
         <v>102</v>
@@ -4703,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D81" s="3">
         <v>45801</v>
       </c>
@@ -4722,6 +4979,24 @@
       <c r="I81">
         <v>40</v>
       </c>
+      <c r="J81" s="3">
+        <v>45830</v>
+      </c>
+      <c r="K81" t="s">
+        <v>126</v>
+      </c>
+      <c r="L81">
+        <v>11</v>
+      </c>
+      <c r="M81" s="3">
+        <v>45829</v>
+      </c>
+      <c r="N81" t="s">
+        <v>168</v>
+      </c>
+      <c r="O81">
+        <v>4</v>
+      </c>
       <c r="P81" s="3">
         <v>45808</v>
       </c>
@@ -4732,12 +5007,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D82" s="3">
         <v>45801</v>
       </c>
       <c r="E82" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F82">
         <v>44</v>
@@ -4751,8 +5026,26 @@
       <c r="I82">
         <v>63</v>
       </c>
+      <c r="J82" s="3">
+        <v>45830</v>
+      </c>
+      <c r="K82" t="s">
+        <v>178</v>
+      </c>
+      <c r="L82">
+        <v>10</v>
+      </c>
+      <c r="M82" s="3">
+        <v>45829</v>
+      </c>
+      <c r="N82" t="s">
+        <v>161</v>
+      </c>
+      <c r="O82">
+        <v>361</v>
+      </c>
       <c r="P82" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q82" t="s">
         <v>184</v>
@@ -4761,12 +5054,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D83" s="3">
         <v>45801</v>
       </c>
       <c r="E83" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F83">
         <v>52</v>
@@ -4780,8 +5073,26 @@
       <c r="I83">
         <v>5</v>
       </c>
+      <c r="J83" s="3">
+        <v>45830</v>
+      </c>
+      <c r="K83" t="s">
+        <v>182</v>
+      </c>
+      <c r="L83">
+        <v>193</v>
+      </c>
+      <c r="M83" s="3">
+        <v>45829</v>
+      </c>
+      <c r="N83" t="s">
+        <v>200</v>
+      </c>
+      <c r="O83">
+        <v>650</v>
+      </c>
       <c r="P83" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q83" t="s">
         <v>188</v>
@@ -4790,7 +5101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D84" s="3">
         <v>45801</v>
       </c>
@@ -4804,13 +5115,31 @@
         <v>45807</v>
       </c>
       <c r="H84" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I84">
         <v>11</v>
       </c>
+      <c r="J84" s="3">
+        <v>45830</v>
+      </c>
+      <c r="K84" t="s">
+        <v>209</v>
+      </c>
+      <c r="L84">
+        <v>88</v>
+      </c>
+      <c r="M84" s="3">
+        <v>45839</v>
+      </c>
+      <c r="N84" t="s">
+        <v>56</v>
+      </c>
+      <c r="O84">
+        <v>4</v>
+      </c>
       <c r="P84" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q84" t="s">
         <v>21</v>
@@ -4819,7 +5148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D85" s="3">
         <v>45801</v>
       </c>
@@ -4833,13 +5162,31 @@
         <v>45807</v>
       </c>
       <c r="H85" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I85">
         <v>10</v>
       </c>
+      <c r="J85" s="3">
+        <v>45830</v>
+      </c>
+      <c r="K85" t="s">
+        <v>70</v>
+      </c>
+      <c r="L85">
+        <v>4</v>
+      </c>
+      <c r="M85" s="3">
+        <v>45839</v>
+      </c>
+      <c r="N85" t="s">
+        <v>70</v>
+      </c>
+      <c r="O85">
+        <v>8</v>
+      </c>
       <c r="P85" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q85" t="s">
         <v>192</v>
@@ -4848,7 +5195,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D86" s="3">
         <v>45801</v>
       </c>
@@ -4862,22 +5209,40 @@
         <v>45807</v>
       </c>
       <c r="H86" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I86">
         <v>26</v>
       </c>
+      <c r="J86" s="3">
+        <v>45830</v>
+      </c>
+      <c r="K86" t="s">
+        <v>71</v>
+      </c>
+      <c r="L86">
+        <v>19</v>
+      </c>
+      <c r="M86" s="3">
+        <v>45839</v>
+      </c>
+      <c r="N86" t="s">
+        <v>130</v>
+      </c>
+      <c r="O86">
+        <v>14</v>
+      </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q86" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="R86">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D87" s="3">
         <v>45801</v>
       </c>
@@ -4891,13 +5256,31 @@
         <v>45811</v>
       </c>
       <c r="H87" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I87">
         <v>154</v>
       </c>
+      <c r="J87" s="3">
+        <v>45830</v>
+      </c>
+      <c r="K87" t="s">
+        <v>155</v>
+      </c>
+      <c r="L87">
+        <v>17</v>
+      </c>
+      <c r="M87" s="3">
+        <v>45839</v>
+      </c>
+      <c r="N87" t="s">
+        <v>66</v>
+      </c>
+      <c r="O87">
+        <v>2</v>
+      </c>
       <c r="P87" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q87" t="s">
         <v>194</v>
@@ -4906,7 +5289,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D88" s="3">
         <v>45801</v>
       </c>
@@ -4920,27 +5303,45 @@
         <v>45811</v>
       </c>
       <c r="H88" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I88">
         <v>182</v>
       </c>
+      <c r="J88" s="3">
+        <v>45830</v>
+      </c>
+      <c r="K88" t="s">
+        <v>130</v>
+      </c>
+      <c r="L88">
+        <v>10</v>
+      </c>
+      <c r="M88" s="3">
+        <v>45839</v>
+      </c>
+      <c r="N88" t="s">
+        <v>151</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
       <c r="P88" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q88" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="R88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D89" s="3">
         <v>45801</v>
       </c>
       <c r="E89" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F89">
         <v>6</v>
@@ -4954,22 +5355,40 @@
       <c r="I89">
         <v>2</v>
       </c>
+      <c r="J89" s="3">
+        <v>45830</v>
+      </c>
+      <c r="K89" t="s">
+        <v>141</v>
+      </c>
+      <c r="L89">
+        <v>30</v>
+      </c>
+      <c r="M89" s="3">
+        <v>45839</v>
+      </c>
+      <c r="N89" t="s">
+        <v>218</v>
+      </c>
+      <c r="O89">
+        <v>46</v>
+      </c>
       <c r="P89" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q89" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="R89">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D90" s="3">
         <v>45801</v>
       </c>
       <c r="E90" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F90">
         <v>7</v>
@@ -4978,13 +5397,31 @@
         <v>45811</v>
       </c>
       <c r="H90" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I90">
         <v>7</v>
       </c>
+      <c r="J90" s="3">
+        <v>45830</v>
+      </c>
+      <c r="K90" t="s">
+        <v>170</v>
+      </c>
+      <c r="L90">
+        <v>52</v>
+      </c>
+      <c r="M90" s="3">
+        <v>45839</v>
+      </c>
+      <c r="N90" t="s">
+        <v>178</v>
+      </c>
+      <c r="O90">
+        <v>8</v>
+      </c>
       <c r="P90" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q90" t="s">
         <v>193</v>
@@ -4993,30 +5430,57 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D91" s="3">
         <v>45801</v>
       </c>
       <c r="E91" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F91">
         <v>10</v>
       </c>
       <c r="G91" s="3">
-        <v>45811</v>
+        <v>45830</v>
+      </c>
+      <c r="H91" t="s">
+        <v>223</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91" s="3">
+        <v>45830</v>
+      </c>
+      <c r="K91" t="s">
+        <v>209</v>
+      </c>
+      <c r="L91">
+        <v>12</v>
+      </c>
+      <c r="M91" s="3">
+        <v>45839</v>
+      </c>
+      <c r="N91" t="s">
+        <v>200</v>
+      </c>
+      <c r="O91">
+        <v>41</v>
       </c>
       <c r="P91" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q91" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="R91">
         <v>64</v>
       </c>
-    </row>
-    <row r="92" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V91" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D92" s="3">
         <v>45801</v>
       </c>
@@ -5027,19 +5491,43 @@
         <v>7</v>
       </c>
       <c r="G92" s="3">
-        <v>45811</v>
+        <v>45830</v>
+      </c>
+      <c r="H92" t="s">
+        <v>150</v>
+      </c>
+      <c r="I92">
+        <v>74</v>
+      </c>
+      <c r="J92" s="3">
+        <v>45830</v>
+      </c>
+      <c r="K92" t="s">
+        <v>203</v>
+      </c>
+      <c r="L92">
+        <v>52</v>
+      </c>
+      <c r="M92" s="3">
+        <v>45839</v>
+      </c>
+      <c r="N92" t="s">
+        <v>225</v>
+      </c>
+      <c r="O92">
+        <v>4</v>
       </c>
       <c r="P92" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q92" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="R92">
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D93" s="3">
         <v>45801</v>
       </c>
@@ -5049,8 +5537,35 @@
       <c r="F93">
         <v>9</v>
       </c>
+      <c r="G93" s="3">
+        <v>45830</v>
+      </c>
+      <c r="H93" t="s">
+        <v>135</v>
+      </c>
+      <c r="I93">
+        <v>149</v>
+      </c>
+      <c r="J93" s="3">
+        <v>45830</v>
+      </c>
+      <c r="K93" t="s">
+        <v>227</v>
+      </c>
+      <c r="L93">
+        <v>69</v>
+      </c>
+      <c r="M93" s="3">
+        <v>45839</v>
+      </c>
+      <c r="N93" t="s">
+        <v>219</v>
+      </c>
+      <c r="O93">
+        <v>7</v>
+      </c>
       <c r="P93" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Q93" t="s">
         <v>71</v>
@@ -5059,7 +5574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D94" s="3">
         <v>45801</v>
       </c>
@@ -5069,8 +5584,35 @@
       <c r="F94">
         <v>8</v>
       </c>
+      <c r="G94" s="3">
+        <v>45830</v>
+      </c>
+      <c r="H94" t="s">
+        <v>168</v>
+      </c>
+      <c r="I94">
+        <v>35</v>
+      </c>
+      <c r="J94" s="3">
+        <v>45830</v>
+      </c>
+      <c r="K94" t="s">
+        <v>174</v>
+      </c>
+      <c r="L94">
+        <v>14</v>
+      </c>
+      <c r="M94" s="3">
+        <v>45840</v>
+      </c>
+      <c r="N94" t="s">
+        <v>130</v>
+      </c>
+      <c r="O94">
+        <v>26</v>
+      </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Q94" t="s">
         <v>140</v>
@@ -5079,7 +5621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D95" s="3">
         <v>45801</v>
       </c>
@@ -5089,8 +5631,35 @@
       <c r="F95">
         <v>6</v>
       </c>
+      <c r="G95" s="3">
+        <v>45830</v>
+      </c>
+      <c r="H95" t="s">
+        <v>150</v>
+      </c>
+      <c r="I95">
+        <v>195</v>
+      </c>
+      <c r="J95" s="3">
+        <v>45830</v>
+      </c>
+      <c r="K95" t="s">
+        <v>229</v>
+      </c>
+      <c r="L95">
+        <v>21</v>
+      </c>
+      <c r="M95" s="3">
+        <v>45840</v>
+      </c>
+      <c r="N95" t="s">
+        <v>151</v>
+      </c>
+      <c r="O95">
+        <v>12</v>
+      </c>
       <c r="P95" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Q95" t="s">
         <v>29</v>
@@ -5099,7 +5668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D96" s="3">
         <v>45801</v>
       </c>
@@ -5109,11 +5678,38 @@
       <c r="F96">
         <v>8</v>
       </c>
+      <c r="G96" s="3">
+        <v>45830</v>
+      </c>
+      <c r="H96" t="s">
+        <v>135</v>
+      </c>
+      <c r="I96">
+        <v>154</v>
+      </c>
+      <c r="J96" s="3">
+        <v>45830</v>
+      </c>
+      <c r="K96" t="s">
+        <v>182</v>
+      </c>
+      <c r="L96">
+        <v>31</v>
+      </c>
+      <c r="M96" s="3">
+        <v>45840</v>
+      </c>
+      <c r="N96" t="s">
+        <v>150</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Q96" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="R96">
         <v>79</v>
@@ -5124,13 +5720,40 @@
         <v>45801</v>
       </c>
       <c r="E97" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F97">
         <v>182</v>
       </c>
+      <c r="G97" s="3">
+        <v>45831</v>
+      </c>
+      <c r="H97" t="s">
+        <v>136</v>
+      </c>
+      <c r="I97">
+        <v>15</v>
+      </c>
+      <c r="J97" s="3">
+        <v>45850</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L97">
+        <v>51</v>
+      </c>
+      <c r="M97" s="3">
+        <v>45840</v>
+      </c>
+      <c r="N97" t="s">
+        <v>191</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
       <c r="P97" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Q97" t="s">
         <v>193</v>
@@ -5149,11 +5772,38 @@
       <c r="F98">
         <v>3</v>
       </c>
+      <c r="G98" s="3">
+        <v>45831</v>
+      </c>
+      <c r="H98" t="s">
+        <v>86</v>
+      </c>
+      <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="J98" s="3">
+        <v>45850</v>
+      </c>
+      <c r="K98" t="s">
+        <v>199</v>
+      </c>
+      <c r="L98">
+        <v>41</v>
+      </c>
+      <c r="M98" s="3">
+        <v>45840</v>
+      </c>
+      <c r="N98" t="s">
+        <v>161</v>
+      </c>
+      <c r="O98">
+        <v>87</v>
+      </c>
       <c r="P98" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Q98" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="R98">
         <v>14</v>
@@ -5169,11 +5819,38 @@
       <c r="F99">
         <v>198</v>
       </c>
+      <c r="G99" s="3">
+        <v>45831</v>
+      </c>
+      <c r="H99" t="s">
+        <v>189</v>
+      </c>
+      <c r="I99">
+        <v>7</v>
+      </c>
+      <c r="J99" s="3">
+        <v>45850</v>
+      </c>
+      <c r="K99" t="s">
+        <v>170</v>
+      </c>
+      <c r="L99">
+        <v>180</v>
+      </c>
+      <c r="M99" s="3">
+        <v>45840</v>
+      </c>
+      <c r="N99" t="s">
+        <v>166</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
       <c r="P99" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Q99" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="R99">
         <v>11</v>
@@ -5184,10 +5861,46 @@
         <v>45801</v>
       </c>
       <c r="E100" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F100">
         <v>5</v>
+      </c>
+      <c r="G100" s="3">
+        <v>45831</v>
+      </c>
+      <c r="H100" t="s">
+        <v>85</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" s="3">
+        <v>45850</v>
+      </c>
+      <c r="K100" t="s">
+        <v>209</v>
+      </c>
+      <c r="L100">
+        <v>443</v>
+      </c>
+      <c r="M100" s="3">
+        <v>45840</v>
+      </c>
+      <c r="N100" t="s">
+        <v>173</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>104</v>
+      </c>
+      <c r="R100">
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="4:18" x14ac:dyDescent="0.25">
@@ -5195,10 +5908,46 @@
         <v>45801</v>
       </c>
       <c r="E101" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="F101">
         <v>18</v>
+      </c>
+      <c r="G101" s="3">
+        <v>45831</v>
+      </c>
+      <c r="H101" t="s">
+        <v>166</v>
+      </c>
+      <c r="I101">
+        <v>192</v>
+      </c>
+      <c r="J101" s="3">
+        <v>45850</v>
+      </c>
+      <c r="K101" t="s">
+        <v>203</v>
+      </c>
+      <c r="L101">
+        <v>257</v>
+      </c>
+      <c r="M101" s="3">
+        <v>45840</v>
+      </c>
+      <c r="N101" t="s">
+        <v>234</v>
+      </c>
+      <c r="O101">
+        <v>4</v>
+      </c>
+      <c r="P101" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>235</v>
+      </c>
+      <c r="R101">
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="4:18" x14ac:dyDescent="0.25">
@@ -5206,10 +5955,46 @@
         <v>45801</v>
       </c>
       <c r="E102" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F102">
         <v>14</v>
+      </c>
+      <c r="G102" s="3">
+        <v>45831</v>
+      </c>
+      <c r="H102" t="s">
+        <v>236</v>
+      </c>
+      <c r="I102">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>45850</v>
+      </c>
+      <c r="K102" t="s">
+        <v>227</v>
+      </c>
+      <c r="L102">
+        <v>202</v>
+      </c>
+      <c r="M102" s="3">
+        <v>45840</v>
+      </c>
+      <c r="N102" t="s">
+        <v>237</v>
+      </c>
+      <c r="O102">
+        <v>6</v>
+      </c>
+      <c r="P102" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>26</v>
+      </c>
+      <c r="R102">
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="4:18" x14ac:dyDescent="0.25">
@@ -5217,10 +6002,46 @@
         <v>45801</v>
       </c>
       <c r="E103" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="F103">
         <v>35</v>
+      </c>
+      <c r="G103" s="3">
+        <v>45831</v>
+      </c>
+      <c r="H103" t="s">
+        <v>234</v>
+      </c>
+      <c r="I103">
+        <v>289</v>
+      </c>
+      <c r="J103" s="3">
+        <v>45850</v>
+      </c>
+      <c r="K103" t="s">
+        <v>182</v>
+      </c>
+      <c r="L103">
+        <v>780</v>
+      </c>
+      <c r="M103" s="3">
+        <v>45840</v>
+      </c>
+      <c r="N103" t="s">
+        <v>221</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>35</v>
+      </c>
+      <c r="R103">
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="4:18" x14ac:dyDescent="0.25">
@@ -5228,10 +6049,37 @@
         <v>45801</v>
       </c>
       <c r="E104" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="F104">
         <v>145</v>
+      </c>
+      <c r="G104" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H104" t="s">
+        <v>151</v>
+      </c>
+      <c r="I104">
+        <v>8</v>
+      </c>
+      <c r="M104" s="3">
+        <v>45846</v>
+      </c>
+      <c r="N104" t="s">
+        <v>221</v>
+      </c>
+      <c r="O104">
+        <v>2</v>
+      </c>
+      <c r="P104" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>96</v>
+      </c>
+      <c r="R104">
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="4:18" x14ac:dyDescent="0.25">
@@ -5239,10 +6087,37 @@
         <v>45801</v>
       </c>
       <c r="E105" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="F105">
         <v>197</v>
+      </c>
+      <c r="G105" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H105" t="s">
+        <v>91</v>
+      </c>
+      <c r="I105">
+        <v>8</v>
+      </c>
+      <c r="M105" s="3">
+        <v>45846</v>
+      </c>
+      <c r="N105" t="s">
+        <v>242</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>87</v>
+      </c>
+      <c r="R105">
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="4:18" x14ac:dyDescent="0.25">
@@ -5250,10 +6125,37 @@
         <v>45801</v>
       </c>
       <c r="E106" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F106">
         <v>43</v>
+      </c>
+      <c r="G106" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H106" t="s">
+        <v>135</v>
+      </c>
+      <c r="I106">
+        <v>4</v>
+      </c>
+      <c r="M106" s="3">
+        <v>45846</v>
+      </c>
+      <c r="N106" t="s">
+        <v>243</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>72</v>
+      </c>
+      <c r="R106">
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="4:18" x14ac:dyDescent="0.25">
@@ -5261,10 +6163,1535 @@
         <v>45801</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F107">
         <v>13</v>
+      </c>
+      <c r="G107" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H107" t="s">
+        <v>168</v>
+      </c>
+      <c r="I107">
+        <v>3</v>
+      </c>
+      <c r="M107" s="3">
+        <v>45846</v>
+      </c>
+      <c r="N107" t="s">
+        <v>244</v>
+      </c>
+      <c r="O107">
+        <v>55</v>
+      </c>
+      <c r="P107" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>245</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D108" s="3">
+        <v>45830</v>
+      </c>
+      <c r="E108" t="s">
+        <v>246</v>
+      </c>
+      <c r="F108">
+        <v>229</v>
+      </c>
+      <c r="G108" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H108" t="s">
+        <v>247</v>
+      </c>
+      <c r="I108">
+        <v>12</v>
+      </c>
+      <c r="M108" s="3">
+        <v>45846</v>
+      </c>
+      <c r="N108" t="s">
+        <v>161</v>
+      </c>
+      <c r="O108">
+        <v>17</v>
+      </c>
+      <c r="P108" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>220</v>
+      </c>
+      <c r="R108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D109" s="3">
+        <v>45830</v>
+      </c>
+      <c r="E109" t="s">
+        <v>248</v>
+      </c>
+      <c r="F109">
+        <v>60</v>
+      </c>
+      <c r="G109" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H109" t="s">
+        <v>46</v>
+      </c>
+      <c r="I109">
+        <v>10</v>
+      </c>
+      <c r="M109" s="3">
+        <v>45846</v>
+      </c>
+      <c r="N109" t="s">
+        <v>166</v>
+      </c>
+      <c r="O109">
+        <v>2</v>
+      </c>
+      <c r="P109" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>249</v>
+      </c>
+      <c r="R109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D110" s="3">
+        <v>45830</v>
+      </c>
+      <c r="E110" t="s">
+        <v>250</v>
+      </c>
+      <c r="F110">
+        <v>6</v>
+      </c>
+      <c r="G110" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H110" t="s">
+        <v>151</v>
+      </c>
+      <c r="I110">
+        <v>5</v>
+      </c>
+      <c r="M110" s="3">
+        <v>45846</v>
+      </c>
+      <c r="N110" t="s">
+        <v>251</v>
+      </c>
+      <c r="O110">
+        <v>42</v>
+      </c>
+      <c r="P110" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>141</v>
+      </c>
+      <c r="R110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D111" s="3">
+        <v>45830</v>
+      </c>
+      <c r="E111" t="s">
+        <v>252</v>
+      </c>
+      <c r="F111">
+        <v>43</v>
+      </c>
+      <c r="G111" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H111" t="s">
+        <v>91</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="M111" s="3">
+        <v>45848</v>
+      </c>
+      <c r="N111" t="s">
+        <v>70</v>
+      </c>
+      <c r="O111">
+        <v>3</v>
+      </c>
+      <c r="P111" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>201</v>
+      </c>
+      <c r="R111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D112" s="3">
+        <v>45830</v>
+      </c>
+      <c r="E112" t="s">
+        <v>253</v>
+      </c>
+      <c r="F112">
+        <v>370</v>
+      </c>
+      <c r="G112" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H112" t="s">
+        <v>161</v>
+      </c>
+      <c r="I112">
+        <v>24</v>
+      </c>
+      <c r="M112" s="3">
+        <v>45848</v>
+      </c>
+      <c r="N112" t="s">
+        <v>254</v>
+      </c>
+      <c r="O112">
+        <v>38</v>
+      </c>
+      <c r="P112" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>155</v>
+      </c>
+      <c r="R112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D113" s="3">
+        <v>45830</v>
+      </c>
+      <c r="E113" t="s">
+        <v>255</v>
+      </c>
+      <c r="F113">
+        <v>61</v>
+      </c>
+      <c r="G113" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H113" t="s">
+        <v>135</v>
+      </c>
+      <c r="I113">
+        <v>50</v>
+      </c>
+      <c r="M113" s="3">
+        <v>45848</v>
+      </c>
+      <c r="N113" t="s">
+        <v>132</v>
+      </c>
+      <c r="O113">
+        <v>5</v>
+      </c>
+      <c r="P113" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>256</v>
+      </c>
+      <c r="R113">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="114" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D114" s="3">
+        <v>45830</v>
+      </c>
+      <c r="E114" t="s">
+        <v>257</v>
+      </c>
+      <c r="F114">
+        <v>312</v>
+      </c>
+      <c r="G114" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H114" t="s">
+        <v>236</v>
+      </c>
+      <c r="I114">
+        <v>17</v>
+      </c>
+      <c r="M114" s="3">
+        <v>45848</v>
+      </c>
+      <c r="N114" t="s">
+        <v>66</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>258</v>
+      </c>
+      <c r="R114">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D115" s="3">
+        <v>45832</v>
+      </c>
+      <c r="E115" t="s">
+        <v>259</v>
+      </c>
+      <c r="F115">
+        <v>246</v>
+      </c>
+      <c r="G115" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H115" t="s">
+        <v>260</v>
+      </c>
+      <c r="I115">
+        <v>8</v>
+      </c>
+      <c r="M115" s="3">
+        <v>45848</v>
+      </c>
+      <c r="N115" t="s">
+        <v>151</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+      <c r="P115" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>261</v>
+      </c>
+      <c r="R115">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D116" s="3">
+        <v>45832</v>
+      </c>
+      <c r="E116" t="s">
+        <v>262</v>
+      </c>
+      <c r="F116">
+        <v>297</v>
+      </c>
+      <c r="G116" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H116" t="s">
+        <v>200</v>
+      </c>
+      <c r="I116">
+        <v>6</v>
+      </c>
+      <c r="M116" s="3">
+        <v>45848</v>
+      </c>
+      <c r="N116" t="s">
+        <v>263</v>
+      </c>
+      <c r="O116">
+        <v>11</v>
+      </c>
+      <c r="P116" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>264</v>
+      </c>
+      <c r="R116">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="G117" s="3">
+        <v>45852</v>
+      </c>
+      <c r="H117" t="s">
+        <v>256</v>
+      </c>
+      <c r="I117">
+        <v>8</v>
+      </c>
+      <c r="M117" s="3">
+        <v>45848</v>
+      </c>
+      <c r="N117" t="s">
+        <v>173</v>
+      </c>
+      <c r="O117">
+        <v>582</v>
+      </c>
+      <c r="P117" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>21</v>
+      </c>
+      <c r="R117">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="G118" s="3">
+        <v>45852</v>
+      </c>
+      <c r="H118" t="s">
+        <v>266</v>
+      </c>
+      <c r="I118">
+        <v>20</v>
+      </c>
+      <c r="M118" s="3">
+        <v>45857</v>
+      </c>
+      <c r="N118" t="s">
+        <v>267</v>
+      </c>
+      <c r="O118">
+        <v>39</v>
+      </c>
+      <c r="P118" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>26</v>
+      </c>
+      <c r="R118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="G119" s="3">
+        <v>45852</v>
+      </c>
+      <c r="H119" t="s">
+        <v>268</v>
+      </c>
+      <c r="I119">
+        <v>46</v>
+      </c>
+      <c r="M119" s="3">
+        <v>45857</v>
+      </c>
+      <c r="N119" t="s">
+        <v>137</v>
+      </c>
+      <c r="O119">
+        <v>32</v>
+      </c>
+      <c r="P119" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>40</v>
+      </c>
+      <c r="R119">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="G120" s="3">
+        <v>45852</v>
+      </c>
+      <c r="H120" t="s">
+        <v>192</v>
+      </c>
+      <c r="I120">
+        <v>8</v>
+      </c>
+      <c r="K120" t="s">
+        <v>224</v>
+      </c>
+      <c r="M120" s="3">
+        <v>45857</v>
+      </c>
+      <c r="N120" t="s">
+        <v>269</v>
+      </c>
+      <c r="O120">
+        <v>39</v>
+      </c>
+      <c r="P120" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>91</v>
+      </c>
+      <c r="R120">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="G121" s="3">
+        <v>45852</v>
+      </c>
+      <c r="H121" t="s">
+        <v>163</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="M121" s="3">
+        <v>45857</v>
+      </c>
+      <c r="N121" t="s">
+        <v>144</v>
+      </c>
+      <c r="O121">
+        <v>2</v>
+      </c>
+      <c r="P121" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>185</v>
+      </c>
+      <c r="R121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="G122" s="3">
+        <v>45852</v>
+      </c>
+      <c r="H122" t="s">
+        <v>168</v>
+      </c>
+      <c r="I122">
+        <v>19</v>
+      </c>
+      <c r="M122" s="3">
+        <v>45857</v>
+      </c>
+      <c r="N122" t="s">
+        <v>270</v>
+      </c>
+      <c r="O122">
+        <v>19</v>
+      </c>
+      <c r="P122" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>271</v>
+      </c>
+      <c r="R122">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="G123" s="3">
+        <v>45852</v>
+      </c>
+      <c r="H123" t="s">
+        <v>272</v>
+      </c>
+      <c r="I123">
+        <v>6</v>
+      </c>
+      <c r="M123" s="3">
+        <v>45857</v>
+      </c>
+      <c r="N123" t="s">
+        <v>273</v>
+      </c>
+      <c r="O123">
+        <v>6</v>
+      </c>
+      <c r="P123" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>154</v>
+      </c>
+      <c r="R123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="G124" s="3">
+        <v>45853</v>
+      </c>
+      <c r="H124" t="s">
+        <v>95</v>
+      </c>
+      <c r="I124">
+        <v>35</v>
+      </c>
+      <c r="M124" s="3">
+        <v>45857</v>
+      </c>
+      <c r="N124" t="s">
+        <v>274</v>
+      </c>
+      <c r="O124">
+        <v>7</v>
+      </c>
+      <c r="P124" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>184</v>
+      </c>
+      <c r="R124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="G125" s="3">
+        <v>45853</v>
+      </c>
+      <c r="H125" t="s">
+        <v>169</v>
+      </c>
+      <c r="I125">
+        <v>21</v>
+      </c>
+      <c r="M125" s="3">
+        <v>45857</v>
+      </c>
+      <c r="N125" t="s">
+        <v>275</v>
+      </c>
+      <c r="O125">
+        <v>1</v>
+      </c>
+      <c r="P125" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>195</v>
+      </c>
+      <c r="R125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="G126" s="3">
+        <v>45853</v>
+      </c>
+      <c r="H126" t="s">
+        <v>276</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="M126" s="3">
+        <v>45857</v>
+      </c>
+      <c r="N126" t="s">
+        <v>277</v>
+      </c>
+      <c r="O126">
+        <v>2</v>
+      </c>
+      <c r="P126" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>181</v>
+      </c>
+      <c r="R126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="G127" s="3">
+        <v>45853</v>
+      </c>
+      <c r="H127" t="s">
+        <v>278</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="M127" s="3">
+        <v>45857</v>
+      </c>
+      <c r="N127" t="s">
+        <v>279</v>
+      </c>
+      <c r="O127">
+        <v>18</v>
+      </c>
+      <c r="P127" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>205</v>
+      </c>
+      <c r="R127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="G128" s="3">
+        <v>45853</v>
+      </c>
+      <c r="H128" t="s">
+        <v>70</v>
+      </c>
+      <c r="I128">
+        <v>9</v>
+      </c>
+      <c r="P128" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>130</v>
+      </c>
+      <c r="R128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G129" s="3">
+        <v>45853</v>
+      </c>
+      <c r="H129" t="s">
+        <v>81</v>
+      </c>
+      <c r="I129">
+        <v>10</v>
+      </c>
+      <c r="P129" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>280</v>
+      </c>
+      <c r="R129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G130" s="3">
+        <v>45853</v>
+      </c>
+      <c r="H130" t="s">
+        <v>281</v>
+      </c>
+      <c r="I130">
+        <v>35</v>
+      </c>
+      <c r="P130" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>282</v>
+      </c>
+      <c r="R130">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="131" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G131" s="3">
+        <v>45853</v>
+      </c>
+      <c r="H131" t="s">
+        <v>283</v>
+      </c>
+      <c r="I131">
+        <v>21</v>
+      </c>
+      <c r="P131" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>281</v>
+      </c>
+      <c r="R131">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G132" s="3">
+        <v>45853</v>
+      </c>
+      <c r="H132" t="s">
+        <v>130</v>
+      </c>
+      <c r="I132">
+        <v>30</v>
+      </c>
+      <c r="P132" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>284</v>
+      </c>
+      <c r="R132">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G133" s="3">
+        <v>45853</v>
+      </c>
+      <c r="H133" t="s">
+        <v>181</v>
+      </c>
+      <c r="I133">
+        <v>27</v>
+      </c>
+      <c r="P133" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>285</v>
+      </c>
+      <c r="R133">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G134" s="3">
+        <v>45853</v>
+      </c>
+      <c r="H134" t="s">
+        <v>66</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="P134" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>283</v>
+      </c>
+      <c r="R134">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="135" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G135" s="3">
+        <v>45853</v>
+      </c>
+      <c r="H135" t="s">
+        <v>151</v>
+      </c>
+      <c r="I135">
+        <v>17</v>
+      </c>
+      <c r="P135" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>286</v>
+      </c>
+      <c r="R135">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="136" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G136" s="3">
+        <v>45853</v>
+      </c>
+      <c r="H136" t="s">
+        <v>168</v>
+      </c>
+      <c r="I136">
+        <v>4</v>
+      </c>
+      <c r="P136" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>287</v>
+      </c>
+      <c r="R136">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="137" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G137" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H137" t="s">
+        <v>94</v>
+      </c>
+      <c r="I137">
+        <v>19</v>
+      </c>
+      <c r="P137" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>288</v>
+      </c>
+      <c r="R137">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G138" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H138" t="s">
+        <v>118</v>
+      </c>
+      <c r="I138">
+        <v>11</v>
+      </c>
+      <c r="P138" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>193</v>
+      </c>
+      <c r="R138">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G139" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H139" t="s">
+        <v>290</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="P139" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>291</v>
+      </c>
+      <c r="R139">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="140" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G140" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H140" t="s">
+        <v>292</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="P140" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>130</v>
+      </c>
+      <c r="R140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G141" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H141" t="s">
+        <v>56</v>
+      </c>
+      <c r="I141">
+        <v>8</v>
+      </c>
+      <c r="P141" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>294</v>
+      </c>
+      <c r="R141">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="142" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G142" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H142" t="s">
+        <v>67</v>
+      </c>
+      <c r="I142">
+        <v>22</v>
+      </c>
+      <c r="P142" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>219</v>
+      </c>
+      <c r="R142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G143" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H143" t="s">
+        <v>256</v>
+      </c>
+      <c r="I143">
+        <v>4</v>
+      </c>
+      <c r="P143" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>66</v>
+      </c>
+      <c r="R143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G144" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H144" t="s">
+        <v>155</v>
+      </c>
+      <c r="I144">
+        <v>70</v>
+      </c>
+      <c r="P144" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>70</v>
+      </c>
+      <c r="R144">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G145" s="3">
+        <v>45858</v>
+      </c>
+      <c r="H145" t="s">
+        <v>70</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="P145" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>280</v>
+      </c>
+      <c r="R145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G146" s="3">
+        <v>45858</v>
+      </c>
+      <c r="H146" t="s">
+        <v>130</v>
+      </c>
+      <c r="I146">
+        <v>22</v>
+      </c>
+      <c r="P146" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>151</v>
+      </c>
+      <c r="R146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G147" s="3">
+        <v>45858</v>
+      </c>
+      <c r="H147" t="s">
+        <v>253</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="P147" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>150</v>
+      </c>
+      <c r="R147">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G148" s="3">
+        <v>45858</v>
+      </c>
+      <c r="H148" t="s">
+        <v>173</v>
+      </c>
+      <c r="I148">
+        <v>375</v>
+      </c>
+      <c r="P148" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>191</v>
+      </c>
+      <c r="R148">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="149" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G149" s="3">
+        <v>45858</v>
+      </c>
+      <c r="H149" t="s">
+        <v>161</v>
+      </c>
+      <c r="I149">
+        <v>217</v>
+      </c>
+      <c r="P149" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>296</v>
+      </c>
+      <c r="R149">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="150" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G150" s="3">
+        <v>45858</v>
+      </c>
+      <c r="H150" t="s">
+        <v>168</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="P150" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>173</v>
+      </c>
+      <c r="R150">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="151" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G151" s="3">
+        <v>45858</v>
+      </c>
+      <c r="H151" t="s">
+        <v>209</v>
+      </c>
+      <c r="I151">
+        <v>39</v>
+      </c>
+      <c r="P151" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>270</v>
+      </c>
+      <c r="R151">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G152" s="3">
+        <v>45858</v>
+      </c>
+      <c r="H152" t="s">
+        <v>174</v>
+      </c>
+      <c r="I152">
+        <v>6</v>
+      </c>
+      <c r="P152" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>216</v>
+      </c>
+      <c r="R152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G153" s="3">
+        <v>45858</v>
+      </c>
+      <c r="H153" t="s">
+        <v>200</v>
+      </c>
+      <c r="I153">
+        <v>32</v>
+      </c>
+      <c r="P153" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>173</v>
+      </c>
+      <c r="R153">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G154" s="3">
+        <v>45858</v>
+      </c>
+      <c r="H154" t="s">
+        <v>298</v>
+      </c>
+      <c r="I154">
+        <v>66</v>
+      </c>
+      <c r="P154" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>126</v>
+      </c>
+      <c r="R154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G155" s="3">
+        <v>45858</v>
+      </c>
+      <c r="H155" t="s">
+        <v>299</v>
+      </c>
+      <c r="I155">
+        <v>24</v>
+      </c>
+      <c r="P155" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>300</v>
+      </c>
+      <c r="R155">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G156" s="3">
+        <v>45858</v>
+      </c>
+      <c r="P156" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>301</v>
+      </c>
+      <c r="R156">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="157" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G157" s="3">
+        <v>45858</v>
+      </c>
+      <c r="P157" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>267</v>
+      </c>
+      <c r="R157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G158" s="3">
+        <v>45858</v>
+      </c>
+      <c r="P158" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>302</v>
+      </c>
+      <c r="R158">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G159" s="3">
+        <v>45858</v>
+      </c>
+      <c r="P159" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>279</v>
+      </c>
+      <c r="R159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G160" s="3">
+        <v>45858</v>
+      </c>
+      <c r="P160" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>273</v>
+      </c>
+      <c r="R160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G161" s="3">
+        <v>45858</v>
+      </c>
+      <c r="P161" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>267</v>
+      </c>
+      <c r="R161">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G162" s="3">
+        <v>45858</v>
+      </c>
+      <c r="P162" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>137</v>
+      </c>
+      <c r="R162">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="P163" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>302</v>
+      </c>
+      <c r="R163">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="P164" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>274</v>
+      </c>
+      <c r="R164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="P165" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>270</v>
+      </c>
+      <c r="R165">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="P166" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>279</v>
+      </c>
+      <c r="R166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="P167" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>192</v>
+      </c>
+      <c r="R167">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="168" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="P168" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>150</v>
+      </c>
+      <c r="R168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="P169" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>304</v>
+      </c>
+      <c r="R169">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="170" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="P170" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>216</v>
+      </c>
+      <c r="R170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="P171" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>157</v>
+      </c>
+      <c r="R171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="P172" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>173</v>
+      </c>
+      <c r="R172">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="173" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="P173" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>301</v>
+      </c>
+      <c r="R173">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="174" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="P174" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>120</v>
+      </c>
+      <c r="R174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="P175" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>126</v>
+      </c>
+      <c r="R175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="P176" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>300</v>
+      </c>
+      <c r="R176">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="177" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P177" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>226</v>
+      </c>
+      <c r="R177">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P178" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>305</v>
+      </c>
+      <c r="R178">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5291,6 +7718,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f57a5a3b-e9ca-4f69-983c-fd244ac66fd9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101002B3BB2F66053D54C98190C8E8AF96932" ma:contentTypeVersion="9" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="c5c07df80678844a945da18b07e36942">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f57a5a3b-e9ca-4f69-983c-fd244ac66fd9" xmlns:ns4="b333733c-e3e1-49b9-88ef-fc9cad076a5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ccde375ddeddf66670bd2d42a175f0da" ns3:_="" ns4:_="">
     <xsd:import namespace="f57a5a3b-e9ca-4f69-983c-fd244ac66fd9"/>
@@ -5485,14 +7920,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f57a5a3b-e9ca-4f69-983c-fd244ac66fd9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14513E02-3D74-44D5-9648-4464696F062B}">
   <ds:schemaRefs>
@@ -5502,6 +7929,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AE009ED-F562-4DBD-B3A1-5CCCCCFAF413}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="f57a5a3b-e9ca-4f69-983c-fd244ac66fd9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b333733c-e3e1-49b9-88ef-fc9cad076a5f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64616556-8C22-4CD5-9625-6862D8E25BB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5518,21 +7962,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AE009ED-F562-4DBD-B3A1-5CCCCCFAF413}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="b333733c-e3e1-49b9-88ef-fc9cad076a5f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f57a5a3b-e9ca-4f69-983c-fd244ac66fd9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>